--- a/public/assets/TargetSmdImport.xlsx
+++ b/public/assets/TargetSmdImport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\sasa_mtcgtc\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\a\sada\sasa 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814396DF-C946-435A-ACF5-12E5C0EDD8DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10845" windowHeight="9210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>EMPLOYEE</t>
   </si>
@@ -39,12 +40,15 @@
   </si>
   <si>
     <t>VALUE</t>
+  </si>
+  <si>
+    <t>RILIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,9 +87,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,19 +404,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -430,8 +439,9 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H1" s="1"/>
     </row>
   </sheetData>
